--- a/OnlineCourses.xlsx
+++ b/OnlineCourses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Sveta\шарага\бдшки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Sveta\шарага\бдшки\onlineCourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF53AA-7DE6-4B54-8946-F2FCAF82DD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DEA0DD-56BE-4E08-98EE-13D788691279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Material" sheetId="5" r:id="rId5"/>
     <sheet name="Certificate" sheetId="6" r:id="rId6"/>
     <sheet name="Comment" sheetId="7" r:id="rId7"/>
+    <sheet name="BoughtCourse" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="251">
   <si>
     <t>IdClient</t>
   </si>
@@ -740,6 +741,51 @@
   </si>
   <si>
     <t>Научная статья</t>
+  </si>
+  <si>
+    <t>IdBougntCourse</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>в корзине</t>
+  </si>
+  <si>
+    <t>пройден с отличием</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>оплачен</t>
+  </si>
+  <si>
+    <t>начат</t>
+  </si>
+  <si>
+    <t>DatePurchase</t>
+  </si>
+  <si>
+    <t>Важныйдокумент.docx</t>
+  </si>
+  <si>
+    <t>очень_важная_презентация.pptx</t>
+  </si>
+  <si>
+    <t>очень_важное_видео.mp4</t>
+  </si>
+  <si>
+    <t>очень_важное_видео.mp5</t>
+  </si>
+  <si>
+    <t>очень_важное_видео.mp6</t>
+  </si>
+  <si>
+    <t>очень_важное_видео.mp7</t>
+  </si>
+  <si>
+    <t>очень_важное_видео.mp8</t>
   </si>
 </sst>
 </file>
@@ -747,7 +793,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -866,29 +912,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1174,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1296,7 @@
       <c r="I2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>5109991153004930</v>
       </c>
     </row>
@@ -1283,7 +1328,7 @@
       <c r="I3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>5109991153004930</v>
       </c>
     </row>
@@ -1400,10 +1445,10 @@
         <v>39623</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>101</v>
@@ -2019,7 +2064,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,95 +2113,95 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>31440</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>5239495052143170</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>23827</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>5239495052143170</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>22279</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>5239495052143170</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>176</v>
       </c>
       <c r="J4" t="s">
@@ -2164,31 +2209,31 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>22896</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>5239495052143170</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>177</v>
       </c>
       <c r="J5" t="s">
@@ -2196,31 +2241,31 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>27320</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>5239495052143170</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>178</v>
       </c>
       <c r="J6" t="s">
@@ -2228,31 +2273,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>30313</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>5239495052143170</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>190</v>
       </c>
       <c r="J7" t="s">
@@ -2260,31 +2305,31 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>28283</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>5239495052143170</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>191</v>
       </c>
       <c r="J8" t="s">
@@ -2292,31 +2337,31 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>28852</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>5239495052143170</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>192</v>
       </c>
       <c r="J9" t="s">
@@ -2336,7 +2381,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,7 +2393,7 @@
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2373,7 +2418,7 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2384,7 +2429,7 @@
       <c r="B2" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>208</v>
       </c>
       <c r="D2">
@@ -2399,7 +2444,7 @@
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>20000</v>
       </c>
     </row>
@@ -2410,7 +2455,7 @@
       <c r="B3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>207</v>
       </c>
       <c r="D3">
@@ -2425,7 +2470,7 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>5000</v>
       </c>
     </row>
@@ -2436,7 +2481,7 @@
       <c r="B4" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>206</v>
       </c>
       <c r="D4">
@@ -2451,7 +2496,7 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>700</v>
       </c>
     </row>
@@ -2462,7 +2507,7 @@
       <c r="B5" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>205</v>
       </c>
       <c r="D5">
@@ -2477,7 +2522,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>300</v>
       </c>
     </row>
@@ -2488,7 +2533,7 @@
       <c r="B6" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>204</v>
       </c>
       <c r="D6">
@@ -2503,7 +2548,7 @@
       <c r="G6">
         <v>5</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>7000</v>
       </c>
     </row>
@@ -2514,7 +2559,7 @@
       <c r="B7" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>203</v>
       </c>
       <c r="D7">
@@ -2529,7 +2574,7 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>8000</v>
       </c>
     </row>
@@ -2540,7 +2585,7 @@
       <c r="B8" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>202</v>
       </c>
       <c r="D8">
@@ -2555,7 +2600,7 @@
       <c r="G8">
         <v>4</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>1500</v>
       </c>
     </row>
@@ -2566,7 +2611,7 @@
       <c r="B9" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D9">
@@ -2581,7 +2626,7 @@
       <c r="G9">
         <v>4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>3500</v>
       </c>
     </row>
@@ -3216,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33BC47C-C741-4487-AF7D-6312A735289F}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3249,6 +3294,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D2" t="s">
         <v>233</v>
       </c>
@@ -3260,6 +3308,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D3" t="s">
         <v>233</v>
       </c>
@@ -3271,6 +3322,9 @@
       <c r="B4">
         <v>2</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D4" t="s">
         <v>233</v>
       </c>
@@ -3282,6 +3336,9 @@
       <c r="B5">
         <v>3</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="D5" t="s">
         <v>234</v>
       </c>
@@ -3293,6 +3350,9 @@
       <c r="B6">
         <v>4</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D6" t="s">
         <v>235</v>
       </c>
@@ -3304,8 +3364,11 @@
       <c r="B7">
         <v>5</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,8 +3378,11 @@
       <c r="B8">
         <v>6</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3326,8 +3392,11 @@
       <c r="B9">
         <v>7</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3337,8 +3406,11 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,6 +3420,9 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D11" t="s">
         <v>233</v>
       </c>
@@ -3359,6 +3434,9 @@
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D12" t="s">
         <v>233</v>
       </c>
@@ -3370,6 +3448,9 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D13" t="s">
         <v>233</v>
       </c>
@@ -3381,6 +3462,9 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D14" t="s">
         <v>233</v>
       </c>
@@ -3392,6 +3476,9 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="D15" t="s">
         <v>235</v>
       </c>
@@ -3403,6 +3490,9 @@
       <c r="B16">
         <v>14</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D16" t="s">
         <v>233</v>
       </c>
@@ -3414,6 +3504,9 @@
       <c r="B17">
         <v>15</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D17" t="s">
         <v>233</v>
       </c>
@@ -3425,6 +3518,9 @@
       <c r="B18">
         <v>16</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="D18" t="s">
         <v>234</v>
       </c>
@@ -3436,6 +3532,9 @@
       <c r="B19">
         <v>17</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D19" t="s">
         <v>233</v>
       </c>
@@ -3447,6 +3546,9 @@
       <c r="B20">
         <v>18</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D20" t="s">
         <v>233</v>
       </c>
@@ -3458,6 +3560,9 @@
       <c r="B21">
         <v>19</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D21" t="s">
         <v>233</v>
       </c>
@@ -3469,6 +3574,9 @@
       <c r="B22">
         <v>20</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D22" t="s">
         <v>233</v>
       </c>
@@ -3480,6 +3588,9 @@
       <c r="B23">
         <v>21</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D23" t="s">
         <v>233</v>
       </c>
@@ -3491,6 +3602,9 @@
       <c r="B24">
         <v>22</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" t="s">
         <v>234</v>
       </c>
@@ -3502,6 +3616,9 @@
       <c r="B25">
         <v>23</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D25" t="s">
         <v>233</v>
       </c>
@@ -3513,6 +3630,9 @@
       <c r="B26">
         <v>24</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="s">
         <v>233</v>
       </c>
@@ -3524,6 +3644,9 @@
       <c r="B27">
         <v>25</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="D27" t="s">
         <v>233</v>
       </c>
@@ -3535,6 +3658,9 @@
       <c r="B28">
         <v>26</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="D28" t="s">
         <v>233</v>
       </c>
@@ -3546,6 +3672,9 @@
       <c r="B29">
         <v>27</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="s">
         <v>233</v>
       </c>
@@ -3557,6 +3686,9 @@
       <c r="B30">
         <v>28</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="D30" t="s">
         <v>234</v>
       </c>
@@ -3568,6 +3700,9 @@
       <c r="B31">
         <v>29</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="D31" t="s">
         <v>233</v>
       </c>
@@ -3579,11 +3714,36 @@
       <c r="B32">
         <v>29</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="D32" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{601D5C09-E791-4C76-9BB2-666785DAAA81}"/>
+    <hyperlink ref="C7:C10" r:id="rId2" display="Важныйдокумент.docx" xr:uid="{EEDD3DC9-AB9B-45F3-B7CC-55DD8B761ACF}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{4D404DBC-873A-4DBD-A442-777D7DDCC958}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{757BAE34-78FB-4BC2-B4B5-D5B0DCE0727E}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{2144A78C-E232-4752-A704-A5121DFC55F0}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{D3BBFE83-2BF7-43AB-980D-DFF626564427}"/>
+    <hyperlink ref="C30" r:id="rId7" xr:uid="{71FBD64E-C108-46A2-AC59-78DBF14270F9}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{979A416C-17D3-4A15-B44C-3A76435B7D16}"/>
+    <hyperlink ref="C3:C4" r:id="rId9" display="очень_важное_видео.mp4" xr:uid="{E3373805-0A4E-45D1-B031-191ADFCB68DB}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{5EB52377-132D-470C-9575-EDF81EF25388}"/>
+    <hyperlink ref="C12:C14" r:id="rId11" display="очень_важное_видео.mp4" xr:uid="{0C1EE33A-6BDA-49BB-A192-7E26A81DC9C9}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{17D33F93-DF9E-4B0F-80C0-1C80BEBCBCBA}"/>
+    <hyperlink ref="C17" r:id="rId13" display="очень_важное_видео.mp4" xr:uid="{901CF9C3-CBAC-47BE-A048-9F74955FA73F}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{BE84B3CC-D780-4CFD-A257-99A81CC89BBD}"/>
+    <hyperlink ref="C20:C23" r:id="rId15" display="очень_важное_видео.mp4" xr:uid="{C6B3B436-B4F2-4B6E-98C7-9EA716367403}"/>
+    <hyperlink ref="C25" r:id="rId16" xr:uid="{7B96732F-7D47-4995-82F4-A1F318353C42}"/>
+    <hyperlink ref="C26:C29" r:id="rId17" display="очень_важное_видео.mp4" xr:uid="{DA5E75B3-DFEF-44FF-A597-58713A5695F0}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{37B7BAFA-2CF1-4918-BFC5-D4C2A6124DEA}"/>
+    <hyperlink ref="C32" r:id="rId19" display="очень_важное_видео.mp4" xr:uid="{A57D1A37-F1C4-4FB8-ADD2-95009145807C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3593,7 +3753,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3638,7 +3798,7 @@
       <c r="E2" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>45709</v>
       </c>
     </row>
@@ -3658,7 +3818,7 @@
       <c r="E3" t="s">
         <v>225</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>45710</v>
       </c>
     </row>
@@ -3678,7 +3838,7 @@
       <c r="E4" t="s">
         <v>225</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>45711</v>
       </c>
     </row>
@@ -3698,7 +3858,7 @@
       <c r="E5" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>45712</v>
       </c>
     </row>
@@ -3718,7 +3878,7 @@
       <c r="E6" t="s">
         <v>225</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>45713</v>
       </c>
     </row>
@@ -3738,7 +3898,7 @@
       <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>45714</v>
       </c>
     </row>
@@ -3758,7 +3918,7 @@
       <c r="E8" t="s">
         <v>225</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>45715</v>
       </c>
     </row>
@@ -3778,7 +3938,7 @@
       <c r="E9" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>45716</v>
       </c>
     </row>
@@ -3798,7 +3958,7 @@
       <c r="E10" t="s">
         <v>225</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>45717</v>
       </c>
     </row>
@@ -3812,7 +3972,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3848,8 +4008,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
-        <v>45021</v>
+      <c r="C2" s="16">
+        <v>45678</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3865,8 +4025,8 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
-        <v>45015</v>
+      <c r="C3" s="16">
+        <v>45711</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3882,8 +4042,8 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
-        <v>45016</v>
+      <c r="C4" s="16">
+        <v>45680</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -3899,8 +4059,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
-        <v>45017</v>
+      <c r="C5" s="16">
+        <v>45702</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3916,8 +4076,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
-        <v>45018</v>
+      <c r="C6" s="16">
+        <v>45693</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3933,8 +4093,8 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
-        <v>45019</v>
+      <c r="C7" s="16">
+        <v>45716</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3950,8 +4110,8 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
-        <v>45020</v>
+      <c r="C8" s="16">
+        <v>45717</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -3967,8 +4127,8 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="17">
-        <v>45022</v>
+      <c r="C9" s="16">
+        <v>45716</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -3984,8 +4144,8 @@
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" s="17">
-        <v>45026</v>
+      <c r="C10" s="16">
+        <v>45719</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -3998,4 +4158,314 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673B7836-E25E-4D99-8FF9-FD7D9F9D03D8}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" s="16">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="16">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="16">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="16">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="16">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="16">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="16">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="16">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="16">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="16">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="16">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="16">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="16">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="16">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="16">
+        <v>45651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OnlineCourses.xlsx
+++ b/OnlineCourses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Sveta\шарага\бдшки\onlineCourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DEA0DD-56BE-4E08-98EE-13D788691279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F5D65-0F6F-40EC-8344-B46D6F4EFE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="272">
   <si>
     <t>IdClient</t>
   </si>
@@ -786,6 +786,69 @@
   </si>
   <si>
     <t>очень_важное_видео.mp8</t>
+  </si>
+  <si>
+    <t>ОПЕРАЦИИ НАД ТАБЛИЦЕЙ</t>
+  </si>
+  <si>
+    <t>Вторая таблица</t>
+  </si>
+  <si>
+    <t>1.Объединение</t>
+  </si>
+  <si>
+    <t>2.Пересечение</t>
+  </si>
+  <si>
+    <t>ParentComment</t>
+  </si>
+  <si>
+    <t>3.Вычитание</t>
+  </si>
+  <si>
+    <t>4.Произведение</t>
+  </si>
+  <si>
+    <t>5.Выборка</t>
+  </si>
+  <si>
+    <t>IdCourse=1</t>
+  </si>
+  <si>
+    <t>6.Проекция</t>
+  </si>
+  <si>
+    <t>выбираем IdComment, Author, IdCourse</t>
+  </si>
+  <si>
+    <t>7. Деление</t>
+  </si>
+  <si>
+    <t>критерий</t>
+  </si>
+  <si>
+    <t>результат</t>
+  </si>
+  <si>
+    <t>8. Соединение</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>таблица для соединения</t>
+  </si>
+  <si>
+    <t>Благодарим за ваш отзыв!</t>
+  </si>
+  <si>
+    <t>Спасибо за отзыв</t>
+  </si>
+  <si>
+    <t>Спасибо за обратную связь</t>
+  </si>
+  <si>
+    <t>Ваш отзыв важен для нас)</t>
   </si>
 </sst>
 </file>
@@ -795,7 +858,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +942,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -888,7 +978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -907,12 +997,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -936,6 +1041,39 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1219,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3969,10 +4107,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AFB331-CCD0-4766-A5F8-1AA49DF38FFF}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,9 +4120,17 @@
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -4000,8 +4146,11 @@
       <c r="E1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4017,8 +4166,11 @@
       <c r="E2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4034,8 +4186,11 @@
       <c r="E3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4051,8 +4206,11 @@
       <c r="E4" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4068,8 +4226,11 @@
       <c r="E5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4085,8 +4246,11 @@
       <c r="E6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4102,8 +4266,11 @@
       <c r="E7" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4119,8 +4286,11 @@
       <c r="E8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4136,8 +4306,11 @@
       <c r="E9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4153,8 +4326,1318 @@
       <c r="E10" t="s">
         <v>222</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="19">
+        <v>10</v>
+      </c>
+      <c r="C19" s="20">
+        <v>45719</v>
+      </c>
+      <c r="D19" s="19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>10</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20">
+        <v>45678</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>11</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20">
+        <v>45711</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="H23" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>1</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20">
+        <v>45678</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>2</v>
+      </c>
+      <c r="B27" s="19">
+        <v>2</v>
+      </c>
+      <c r="C27" s="20">
+        <v>45711</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+      <c r="J27" s="20">
+        <v>45678</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>3</v>
+      </c>
+      <c r="B28" s="19">
+        <v>3</v>
+      </c>
+      <c r="C28" s="20">
+        <v>45680</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>2</v>
+      </c>
+      <c r="I28" s="19">
+        <v>2</v>
+      </c>
+      <c r="J28" s="20">
+        <v>45711</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>4</v>
+      </c>
+      <c r="B29" s="19">
+        <v>4</v>
+      </c>
+      <c r="C29" s="20">
+        <v>45702</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>3</v>
+      </c>
+      <c r="I29" s="19">
+        <v>3</v>
+      </c>
+      <c r="J29" s="20">
+        <v>45680</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>5</v>
+      </c>
+      <c r="B30" s="19">
+        <v>5</v>
+      </c>
+      <c r="C30" s="20">
+        <v>45693</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>4</v>
+      </c>
+      <c r="I30" s="19">
+        <v>4</v>
+      </c>
+      <c r="J30" s="20">
+        <v>45702</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>6</v>
+      </c>
+      <c r="B31" s="19">
+        <v>5</v>
+      </c>
+      <c r="C31" s="20">
+        <v>45716</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <v>5</v>
+      </c>
+      <c r="I31" s="19">
+        <v>5</v>
+      </c>
+      <c r="J31" s="20">
+        <v>45693</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="M31" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>7</v>
+      </c>
+      <c r="B32" s="19">
+        <v>6</v>
+      </c>
+      <c r="C32" s="20">
+        <v>45717</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>8</v>
+      </c>
+      <c r="B33" s="19">
+        <v>7</v>
+      </c>
+      <c r="C33" s="20">
+        <v>45716</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>9</v>
+      </c>
+      <c r="B34" s="19">
+        <v>10</v>
+      </c>
+      <c r="C34" s="20">
+        <v>45719</v>
+      </c>
+      <c r="D34" s="19">
+        <v>4</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>10</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="20">
+        <v>45678</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>11</v>
+      </c>
+      <c r="B36" s="19">
+        <v>2</v>
+      </c>
+      <c r="C36" s="20">
+        <v>45711</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H37" s="19">
+        <v>1</v>
+      </c>
+      <c r="I37" s="19">
+        <v>1</v>
+      </c>
+      <c r="J37" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="H38" s="19">
+        <v>2</v>
+      </c>
+      <c r="I38" s="19">
+        <v>2</v>
+      </c>
+      <c r="J38" s="19">
+        <v>1</v>
+      </c>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="19">
+        <v>3</v>
+      </c>
+      <c r="I39" s="19">
+        <v>3</v>
+      </c>
+      <c r="J39" s="19">
+        <v>1</v>
+      </c>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H40" s="19">
+        <v>4</v>
+      </c>
+      <c r="I40" s="19">
+        <v>4</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>9</v>
+      </c>
+      <c r="B41" s="19">
+        <v>10</v>
+      </c>
+      <c r="C41" s="20">
+        <v>45719</v>
+      </c>
+      <c r="D41" s="19">
+        <v>4</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19">
+        <v>5</v>
+      </c>
+      <c r="I41" s="19">
+        <v>5</v>
+      </c>
+      <c r="J41" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="19">
+        <v>6</v>
+      </c>
+      <c r="I42" s="19">
+        <v>5</v>
+      </c>
+      <c r="J42" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="H43" s="19">
+        <v>7</v>
+      </c>
+      <c r="I43" s="19">
+        <v>6</v>
+      </c>
+      <c r="J43" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="19">
+        <v>8</v>
+      </c>
+      <c r="I44" s="19">
+        <v>7</v>
+      </c>
+      <c r="J44" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H45" s="19">
+        <v>9</v>
+      </c>
+      <c r="I45" s="19">
+        <v>10</v>
+      </c>
+      <c r="J45" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>1</v>
+      </c>
+      <c r="B46" s="19">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20">
+        <v>45678</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>2</v>
+      </c>
+      <c r="B47" s="19">
+        <v>2</v>
+      </c>
+      <c r="C47" s="20">
+        <v>45711</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>3</v>
+      </c>
+      <c r="B48" s="19">
+        <v>3</v>
+      </c>
+      <c r="C48" s="20">
+        <v>45680</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="19">
+        <v>0</v>
+      </c>
+      <c r="H48" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>4</v>
+      </c>
+      <c r="B49" s="19">
+        <v>4</v>
+      </c>
+      <c r="C49" s="20">
+        <v>45702</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="19">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>5</v>
+      </c>
+      <c r="B50" s="19">
+        <v>5</v>
+      </c>
+      <c r="C50" s="20">
+        <v>45693</v>
+      </c>
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L50" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>6</v>
+      </c>
+      <c r="B51" s="19">
+        <v>5</v>
+      </c>
+      <c r="C51" s="20">
+        <v>45716</v>
+      </c>
+      <c r="D51" s="19">
+        <v>2</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
+        <v>5</v>
+      </c>
+      <c r="I51" s="20">
+        <v>45693</v>
+      </c>
+      <c r="J51" s="19">
+        <v>1</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>7</v>
+      </c>
+      <c r="B52" s="19">
+        <v>6</v>
+      </c>
+      <c r="C52" s="20">
+        <v>45717</v>
+      </c>
+      <c r="D52" s="19">
+        <v>3</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+      <c r="H52" s="19">
+        <v>6</v>
+      </c>
+      <c r="I52" s="20">
+        <v>45716</v>
+      </c>
+      <c r="J52" s="19">
+        <v>2</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="L52" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>8</v>
+      </c>
+      <c r="B53" s="19">
+        <v>7</v>
+      </c>
+      <c r="C53" s="20">
+        <v>45716</v>
+      </c>
+      <c r="D53" s="19">
+        <v>3</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H54" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H56" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H57" s="19">
+        <v>5</v>
+      </c>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H60" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H62" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H64" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H65" s="19">
+        <v>1</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H66" s="19">
+        <v>2</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H67" s="19">
+        <v>3</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H68" s="19">
+        <v>4</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H70" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+    </row>
+    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H72" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H73" s="19">
+        <v>1</v>
+      </c>
+      <c r="I73" s="19">
+        <v>1</v>
+      </c>
+      <c r="J73" s="20">
+        <v>45678</v>
+      </c>
+      <c r="K73" s="19">
+        <v>1</v>
+      </c>
+      <c r="L73" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="M73" s="19">
+        <v>0</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H74" s="19">
+        <v>2</v>
+      </c>
+      <c r="I74" s="19">
+        <v>2</v>
+      </c>
+      <c r="J74" s="20">
+        <v>45711</v>
+      </c>
+      <c r="K74" s="19">
+        <v>1</v>
+      </c>
+      <c r="L74" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="M74" s="19">
+        <v>0</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H75" s="19">
+        <v>3</v>
+      </c>
+      <c r="I75" s="19">
+        <v>3</v>
+      </c>
+      <c r="J75" s="20">
+        <v>45680</v>
+      </c>
+      <c r="K75" s="19">
+        <v>1</v>
+      </c>
+      <c r="L75" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="M75" s="19">
+        <v>0</v>
+      </c>
+      <c r="N75" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H76" s="19">
+        <v>4</v>
+      </c>
+      <c r="I76" s="19">
+        <v>4</v>
+      </c>
+      <c r="J76" s="20">
+        <v>45702</v>
+      </c>
+      <c r="K76" s="19">
+        <v>1</v>
+      </c>
+      <c r="L76" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M76" s="19">
+        <v>0</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H77" s="19">
+        <v>5</v>
+      </c>
+      <c r="I77" s="19">
+        <v>5</v>
+      </c>
+      <c r="J77" s="20">
+        <v>45693</v>
+      </c>
+      <c r="K77" s="19">
+        <v>1</v>
+      </c>
+      <c r="L77" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="M77" s="19">
+        <v>0</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H78" s="19">
+        <v>6</v>
+      </c>
+      <c r="I78" s="19">
+        <v>5</v>
+      </c>
+      <c r="J78" s="20">
+        <v>45716</v>
+      </c>
+      <c r="K78" s="19">
+        <v>2</v>
+      </c>
+      <c r="L78" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="M78" s="19">
+        <v>0</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H79" s="19">
+        <v>7</v>
+      </c>
+      <c r="I79" s="19">
+        <v>6</v>
+      </c>
+      <c r="J79" s="20">
+        <v>45717</v>
+      </c>
+      <c r="K79" s="19">
+        <v>3</v>
+      </c>
+      <c r="L79" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="M79" s="19">
+        <v>0</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H80" s="19">
+        <v>8</v>
+      </c>
+      <c r="I80" s="19">
+        <v>7</v>
+      </c>
+      <c r="J80" s="20">
+        <v>45716</v>
+      </c>
+      <c r="K80" s="19">
+        <v>3</v>
+      </c>
+      <c r="L80" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M80" s="19">
+        <v>0</v>
+      </c>
+      <c r="N80" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H81" s="19">
+        <v>9</v>
+      </c>
+      <c r="I81" s="19">
+        <v>10</v>
+      </c>
+      <c r="J81" s="20">
+        <v>45719</v>
+      </c>
+      <c r="K81" s="19">
+        <v>4</v>
+      </c>
+      <c r="L81" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M81" s="19">
+        <v>0</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="A13:M14"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+  </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OnlineCourses.xlsx
+++ b/OnlineCourses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Sveta\шарага\бдшки\onlineCourses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43F5D65-0F6F-40EC-8344-B46D6F4EFE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C32A89-F209-48F2-B306-1FC220ED4752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="276">
   <si>
     <t>IdClient</t>
   </si>
@@ -849,6 +849,18 @@
   </si>
   <si>
     <t>Ваш отзыв важен для нас)</t>
+  </si>
+  <si>
+    <t>таблица для произведения</t>
+  </si>
+  <si>
+    <t>AnalyzeComment</t>
+  </si>
+  <si>
+    <t>Аня</t>
+  </si>
+  <si>
+    <t>Володя</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1041,32 +1053,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1074,6 +1071,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4107,10 +4116,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AFB331-CCD0-4766-A5F8-1AA49DF38FFF}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4121,16 +4130,18 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -4150,7 +4161,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4170,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4190,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4210,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4230,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4250,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4270,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4290,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4310,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4330,1313 +4341,1762 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>9</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>10</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>45719</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>4</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
         <v>10</v>
       </c>
-      <c r="B20" s="19">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20">
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
         <v>45678</v>
       </c>
-      <c r="D20" s="19">
-        <v>1</v>
-      </c>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
         <v>11</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>45711</v>
       </c>
-      <c r="D21" s="19">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="H23" s="26" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="20"/>
+      <c r="I23" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="17" t="s">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>1</v>
-      </c>
-      <c r="B26" s="19">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20">
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
         <v>45678</v>
       </c>
-      <c r="D26" s="19">
-        <v>1</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19" t="s">
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="I26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="J26" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="K26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="L26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="M26" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="19" t="s">
+      <c r="N26" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
         <v>2</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="17">
         <v>2</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>45711</v>
       </c>
-      <c r="D27" s="19">
-        <v>1</v>
-      </c>
-      <c r="E27" s="19" t="s">
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
-        <v>1</v>
-      </c>
-      <c r="J27" s="20">
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
         <v>45678</v>
       </c>
-      <c r="K27" s="19">
-        <v>1</v>
-      </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="17">
+        <v>1</v>
+      </c>
+      <c r="M27" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="M27" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>3</v>
-      </c>
-      <c r="B28" s="19">
-        <v>3</v>
-      </c>
-      <c r="C28" s="20">
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>3</v>
+      </c>
+      <c r="B28" s="17">
+        <v>3</v>
+      </c>
+      <c r="C28" s="18">
         <v>45680</v>
       </c>
-      <c r="D28" s="19">
-        <v>1</v>
-      </c>
-      <c r="E28" s="19" t="s">
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="I28" s="17">
         <v>2</v>
       </c>
-      <c r="I28" s="19">
+      <c r="J28" s="17">
         <v>2</v>
       </c>
-      <c r="J28" s="20">
+      <c r="K28" s="18">
         <v>45711</v>
       </c>
-      <c r="K28" s="19">
-        <v>1</v>
-      </c>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="17">
+        <v>1</v>
+      </c>
+      <c r="M28" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="M28" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
+      <c r="N28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>4</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="17">
         <v>4</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>45702</v>
       </c>
-      <c r="D29" s="19">
-        <v>1</v>
-      </c>
-      <c r="E29" s="19" t="s">
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19">
-        <v>3</v>
-      </c>
-      <c r="I29" s="19">
-        <v>3</v>
-      </c>
-      <c r="J29" s="20">
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="I29" s="17">
+        <v>3</v>
+      </c>
+      <c r="J29" s="17">
+        <v>3</v>
+      </c>
+      <c r="K29" s="18">
         <v>45680</v>
       </c>
-      <c r="K29" s="19">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="17">
+        <v>1</v>
+      </c>
+      <c r="M29" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="M29" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
+      <c r="N29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>5</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="17">
         <v>5</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>45693</v>
       </c>
-      <c r="D30" s="19">
-        <v>1</v>
-      </c>
-      <c r="E30" s="19" t="s">
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="19">
-        <v>0</v>
-      </c>
-      <c r="H30" s="19">
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="I30" s="17">
         <v>4</v>
       </c>
-      <c r="I30" s="19">
+      <c r="J30" s="17">
         <v>4</v>
       </c>
-      <c r="J30" s="20">
+      <c r="K30" s="18">
         <v>45702</v>
       </c>
-      <c r="K30" s="19">
-        <v>1</v>
-      </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="M30" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>6</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="17">
         <v>5</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>45716</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <v>2</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="I31" s="17">
         <v>5</v>
       </c>
-      <c r="I31" s="19">
+      <c r="J31" s="17">
         <v>5</v>
       </c>
-      <c r="J31" s="20">
+      <c r="K31" s="18">
         <v>45693</v>
       </c>
-      <c r="K31" s="19">
-        <v>1</v>
-      </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="17">
+        <v>1</v>
+      </c>
+      <c r="M31" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="N31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
         <v>7</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="17">
         <v>6</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>45717</v>
       </c>
-      <c r="D32" s="19">
-        <v>3</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="D32" s="17">
+        <v>3</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
+      <c r="F32" s="17">
+        <v>0</v>
+      </c>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
         <v>8</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="17">
         <v>7</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>45716</v>
       </c>
-      <c r="D33" s="19">
-        <v>3</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="17">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="H33" s="26" t="s">
+      <c r="F33" s="17">
+        <v>0</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="I33" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
         <v>9</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <v>10</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>45719</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>4</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17" t="s">
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="I34" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>10</v>
       </c>
-      <c r="B35" s="19">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20">
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18">
         <v>45678</v>
       </c>
-      <c r="D35" s="19">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
         <v>11</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>2</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>45711</v>
       </c>
-      <c r="D36" s="19">
-        <v>1</v>
-      </c>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="17">
+        <v>1</v>
+      </c>
+      <c r="E36" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="I36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="J36" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="K36" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="19">
-        <v>1</v>
-      </c>
-      <c r="I37" s="19">
-        <v>1</v>
-      </c>
-      <c r="J37" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="17">
+        <v>1</v>
+      </c>
+      <c r="J37" s="17">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="H38" s="19">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="20"/>
+      <c r="I38" s="17">
         <v>2</v>
       </c>
-      <c r="I38" s="19">
+      <c r="J38" s="17">
         <v>2</v>
       </c>
-      <c r="J38" s="19">
-        <v>1</v>
-      </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H39" s="19">
-        <v>3</v>
-      </c>
-      <c r="I39" s="19">
-        <v>3</v>
-      </c>
-      <c r="J39" s="19">
-        <v>1</v>
-      </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I39" s="17">
+        <v>3</v>
+      </c>
+      <c r="J39" s="17">
+        <v>3</v>
+      </c>
+      <c r="K39" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="H40" s="19">
+      <c r="G40" s="29"/>
+      <c r="I40" s="17">
         <v>4</v>
       </c>
-      <c r="I40" s="19">
+      <c r="J40" s="17">
         <v>4</v>
       </c>
-      <c r="J40" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
         <v>9</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="17">
         <v>10</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>45719</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="17">
         <v>4</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F41" s="19">
-        <v>0</v>
-      </c>
-      <c r="H41" s="19">
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="I41" s="17">
         <v>5</v>
       </c>
-      <c r="I41" s="19">
+      <c r="J41" s="17">
         <v>5</v>
       </c>
-      <c r="J41" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="19">
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I42" s="17">
         <v>6</v>
       </c>
-      <c r="I42" s="19">
+      <c r="J42" s="17">
         <v>5</v>
       </c>
-      <c r="J42" s="19">
+      <c r="K42" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="26" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="H43" s="19">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="20"/>
+      <c r="I43" s="17">
         <v>7</v>
       </c>
-      <c r="I43" s="19">
+      <c r="J43" s="17">
         <v>6</v>
       </c>
-      <c r="J43" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H44" s="19">
+      <c r="K43" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I44" s="17">
         <v>8</v>
       </c>
-      <c r="I44" s="19">
+      <c r="J44" s="17">
         <v>7</v>
       </c>
-      <c r="J44" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
+      <c r="K44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="H45" s="19">
+      <c r="G45" s="29"/>
+      <c r="I45" s="17">
         <v>9</v>
       </c>
-      <c r="I45" s="19">
+      <c r="J45" s="17">
         <v>10</v>
       </c>
-      <c r="J45" s="19">
+      <c r="K45" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>1</v>
-      </c>
-      <c r="B46" s="19">
-        <v>1</v>
-      </c>
-      <c r="C46" s="20">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>1</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18">
         <v>45678</v>
       </c>
-      <c r="D46" s="19">
-        <v>1</v>
-      </c>
-      <c r="E46" s="19" t="s">
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="F46" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
+      <c r="F46" s="17">
+        <v>0</v>
+      </c>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
         <v>2</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="17">
         <v>2</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>45711</v>
       </c>
-      <c r="D47" s="19">
-        <v>1</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F47" s="19">
-        <v>0</v>
-      </c>
-      <c r="H47" s="26" t="s">
+      <c r="F47" s="17">
+        <v>0</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="I47" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>3</v>
-      </c>
-      <c r="B48" s="19">
-        <v>3</v>
-      </c>
-      <c r="C48" s="20">
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>3</v>
+      </c>
+      <c r="B48" s="17">
+        <v>3</v>
+      </c>
+      <c r="C48" s="18">
         <v>45680</v>
       </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
-      <c r="E48" s="19" t="s">
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="H48" s="30" t="s">
+      <c r="F48" s="17">
+        <v>0</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="I48" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
         <v>4</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="17">
         <v>4</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>45702</v>
       </c>
-      <c r="D49" s="19">
-        <v>1</v>
-      </c>
-      <c r="E49" s="19" t="s">
+      <c r="D49" s="17">
+        <v>1</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="F49" s="19">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
+      <c r="F49" s="17">
+        <v>0</v>
+      </c>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
         <v>5</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="17">
         <v>5</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>45693</v>
       </c>
-      <c r="D50" s="19">
-        <v>1</v>
-      </c>
-      <c r="E50" s="19" t="s">
+      <c r="D50" s="17">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F50" s="19">
-        <v>0</v>
-      </c>
-      <c r="H50" s="19" t="s">
+      <c r="F50" s="17">
+        <v>0</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="I50" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="J50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="K50" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="L50" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L50" s="19" t="s">
+      <c r="M50" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
         <v>6</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="17">
         <v>5</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>45716</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="17">
         <v>2</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="19">
-        <v>0</v>
-      </c>
-      <c r="H51" s="19">
+      <c r="F51" s="17">
+        <v>0</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="I51" s="17">
         <v>5</v>
       </c>
-      <c r="I51" s="20">
+      <c r="J51" s="18">
         <v>45693</v>
       </c>
-      <c r="J51" s="19">
-        <v>1</v>
-      </c>
-      <c r="K51" s="19" t="s">
+      <c r="K51" s="17">
+        <v>1</v>
+      </c>
+      <c r="L51" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="L51" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
+      <c r="M51" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
         <v>7</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="17">
         <v>6</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>45717</v>
       </c>
-      <c r="D52" s="19">
-        <v>3</v>
-      </c>
-      <c r="E52" s="19" t="s">
+      <c r="D52" s="17">
+        <v>3</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="19">
-        <v>0</v>
-      </c>
-      <c r="H52" s="19">
+      <c r="F52" s="17">
+        <v>0</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="I52" s="17">
         <v>6</v>
       </c>
-      <c r="I52" s="20">
+      <c r="J52" s="18">
         <v>45716</v>
       </c>
-      <c r="J52" s="19">
+      <c r="K52" s="17">
         <v>2</v>
       </c>
-      <c r="K52" s="19" t="s">
+      <c r="L52" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="L52" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
+      <c r="M52" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
         <v>8</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="17">
         <v>7</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>45716</v>
       </c>
-      <c r="D53" s="19">
-        <v>3</v>
-      </c>
-      <c r="E53" s="19" t="s">
+      <c r="D53" s="17">
+        <v>3</v>
+      </c>
+      <c r="E53" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F53" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H54" s="30" t="s">
+      <c r="F53" s="17">
+        <v>0</v>
+      </c>
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I54" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H56" s="19" t="s">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I56" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H57" s="19">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="I57" s="17">
         <v>5</v>
       </c>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H60" s="26" t="s">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I60" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H62" s="30" t="s">
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="30"/>
+      <c r="I62" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H64" s="19" t="s">
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="I64" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="19" t="s">
+      <c r="J64" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H65" s="19">
-        <v>1</v>
-      </c>
-      <c r="I65" s="19" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="17">
+        <v>1</v>
+      </c>
+      <c r="J65" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H66" s="19">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>1</v>
+      </c>
+      <c r="B66" s="17">
+        <v>1</v>
+      </c>
+      <c r="C66" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D66" s="17">
+        <v>1</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" s="17">
+        <v>0</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I66" s="17">
         <v>2</v>
       </c>
-      <c r="I66" s="19" t="s">
+      <c r="J66" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H67" s="19">
-        <v>3</v>
-      </c>
-      <c r="I67" s="19" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>1</v>
+      </c>
+      <c r="B67" s="17">
+        <v>1</v>
+      </c>
+      <c r="C67" s="18">
+        <v>45678</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" s="17">
+        <v>0</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67" s="17">
+        <v>3</v>
+      </c>
+      <c r="J67" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H68" s="19">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>2</v>
+      </c>
+      <c r="B68" s="17">
+        <v>2</v>
+      </c>
+      <c r="C68" s="18">
+        <v>45711</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I68" s="17">
         <v>4</v>
       </c>
-      <c r="I68" s="19" t="s">
+      <c r="J68" s="17" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H70" s="30" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>2</v>
+      </c>
+      <c r="B69" s="17">
+        <v>2</v>
+      </c>
+      <c r="C69" s="18">
+        <v>45711</v>
+      </c>
+      <c r="D69" s="17">
+        <v>1</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>3</v>
+      </c>
+      <c r="B70" s="17">
+        <v>3</v>
+      </c>
+      <c r="C70" s="18">
+        <v>45680</v>
+      </c>
+      <c r="D70" s="17">
+        <v>1</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I70" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-    </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-    </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H72" s="19" t="s">
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>3</v>
+      </c>
+      <c r="B71" s="17">
+        <v>3</v>
+      </c>
+      <c r="C71" s="18">
+        <v>45680</v>
+      </c>
+      <c r="D71" s="17">
+        <v>1</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>4</v>
+      </c>
+      <c r="B72" s="17">
+        <v>4</v>
+      </c>
+      <c r="C72" s="18">
+        <v>45702</v>
+      </c>
+      <c r="D72" s="17">
+        <v>1</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I72" s="19" t="s">
+      <c r="J72" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="K72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K72" s="19" t="s">
+      <c r="L72" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="L72" s="19" t="s">
+      <c r="M72" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M72" s="19" t="s">
+      <c r="N72" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="O72" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H73" s="19">
-        <v>1</v>
-      </c>
-      <c r="I73" s="19">
-        <v>1</v>
-      </c>
-      <c r="J73" s="20">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>4</v>
+      </c>
+      <c r="B73" s="17">
+        <v>4</v>
+      </c>
+      <c r="C73" s="18">
+        <v>45702</v>
+      </c>
+      <c r="D73" s="17">
+        <v>1</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1</v>
+      </c>
+      <c r="K73" s="18">
         <v>45678</v>
       </c>
-      <c r="K73" s="19">
-        <v>1</v>
-      </c>
-      <c r="L73" s="19" t="s">
+      <c r="L73" s="17">
+        <v>1</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="M73" s="19">
-        <v>0</v>
-      </c>
-      <c r="N73" s="19" t="s">
+      <c r="N73" s="17">
+        <v>0</v>
+      </c>
+      <c r="O73" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H74" s="19">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>5</v>
+      </c>
+      <c r="B74" s="17">
+        <v>5</v>
+      </c>
+      <c r="C74" s="18">
+        <v>45693</v>
+      </c>
+      <c r="D74" s="17">
+        <v>1</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F74" s="17">
+        <v>0</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I74" s="17">
         <v>2</v>
       </c>
-      <c r="I74" s="19">
+      <c r="J74" s="17">
         <v>2</v>
       </c>
-      <c r="J74" s="20">
+      <c r="K74" s="18">
         <v>45711</v>
       </c>
-      <c r="K74" s="19">
-        <v>1</v>
-      </c>
-      <c r="L74" s="19" t="s">
+      <c r="L74" s="17">
+        <v>1</v>
+      </c>
+      <c r="M74" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="M74" s="19">
-        <v>0</v>
-      </c>
-      <c r="N74" s="19" t="s">
+      <c r="N74" s="17">
+        <v>0</v>
+      </c>
+      <c r="O74" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H75" s="19">
-        <v>3</v>
-      </c>
-      <c r="I75" s="19">
-        <v>3</v>
-      </c>
-      <c r="J75" s="20">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>5</v>
+      </c>
+      <c r="B75" s="17">
+        <v>5</v>
+      </c>
+      <c r="C75" s="18">
+        <v>45693</v>
+      </c>
+      <c r="D75" s="17">
+        <v>1</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I75" s="17">
+        <v>3</v>
+      </c>
+      <c r="J75" s="17">
+        <v>3</v>
+      </c>
+      <c r="K75" s="18">
         <v>45680</v>
       </c>
-      <c r="K75" s="19">
-        <v>1</v>
-      </c>
-      <c r="L75" s="19" t="s">
+      <c r="L75" s="17">
+        <v>1</v>
+      </c>
+      <c r="M75" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="M75" s="19">
-        <v>0</v>
-      </c>
-      <c r="N75" s="19" t="s">
+      <c r="N75" s="17">
+        <v>0</v>
+      </c>
+      <c r="O75" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H76" s="19">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>6</v>
+      </c>
+      <c r="B76" s="17">
+        <v>5</v>
+      </c>
+      <c r="C76" s="18">
+        <v>45716</v>
+      </c>
+      <c r="D76" s="17">
+        <v>2</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" s="17">
         <v>4</v>
       </c>
-      <c r="I76" s="19">
+      <c r="J76" s="17">
         <v>4</v>
       </c>
-      <c r="J76" s="20">
+      <c r="K76" s="18">
         <v>45702</v>
       </c>
-      <c r="K76" s="19">
-        <v>1</v>
-      </c>
-      <c r="L76" s="19" t="s">
+      <c r="L76" s="17">
+        <v>1</v>
+      </c>
+      <c r="M76" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="M76" s="19">
-        <v>0</v>
-      </c>
-      <c r="N76" s="19" t="s">
+      <c r="N76" s="17">
+        <v>0</v>
+      </c>
+      <c r="O76" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H77" s="19">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>6</v>
+      </c>
+      <c r="B77" s="17">
         <v>5</v>
       </c>
-      <c r="I77" s="19">
+      <c r="C77" s="18">
+        <v>45716</v>
+      </c>
+      <c r="D77" s="17">
+        <v>2</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="17">
+        <v>0</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I77" s="17">
         <v>5</v>
       </c>
-      <c r="J77" s="20">
+      <c r="J77" s="17">
+        <v>5</v>
+      </c>
+      <c r="K77" s="18">
         <v>45693</v>
       </c>
-      <c r="K77" s="19">
-        <v>1</v>
-      </c>
-      <c r="L77" s="19" t="s">
+      <c r="L77" s="17">
+        <v>1</v>
+      </c>
+      <c r="M77" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="M77" s="19">
-        <v>0</v>
-      </c>
-      <c r="N77" s="19" t="s">
+      <c r="N77" s="17">
+        <v>0</v>
+      </c>
+      <c r="O77" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H78" s="19">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <v>7</v>
+      </c>
+      <c r="B78" s="17">
         <v>6</v>
       </c>
-      <c r="I78" s="19">
+      <c r="C78" s="18">
+        <v>45717</v>
+      </c>
+      <c r="D78" s="17">
+        <v>3</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="17">
+        <v>0</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I78" s="17">
+        <v>6</v>
+      </c>
+      <c r="J78" s="17">
         <v>5</v>
       </c>
-      <c r="J78" s="20">
+      <c r="K78" s="18">
         <v>45716</v>
       </c>
-      <c r="K78" s="19">
+      <c r="L78" s="17">
         <v>2</v>
       </c>
-      <c r="L78" s="19" t="s">
+      <c r="M78" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="M78" s="19">
-        <v>0</v>
-      </c>
-      <c r="N78" s="19" t="s">
+      <c r="N78" s="17">
+        <v>0</v>
+      </c>
+      <c r="O78" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H79" s="19">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
         <v>7</v>
       </c>
-      <c r="I79" s="19">
+      <c r="B79" s="17">
         <v>6</v>
       </c>
-      <c r="J79" s="20">
+      <c r="C79" s="18">
         <v>45717</v>
       </c>
-      <c r="K79" s="19">
-        <v>3</v>
-      </c>
-      <c r="L79" s="19" t="s">
+      <c r="D79" s="17">
+        <v>3</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="M79" s="19">
-        <v>0</v>
-      </c>
-      <c r="N79" s="19" t="s">
+      <c r="F79" s="17">
+        <v>0</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I79" s="17">
+        <v>7</v>
+      </c>
+      <c r="J79" s="17">
+        <v>6</v>
+      </c>
+      <c r="K79" s="18">
+        <v>45717</v>
+      </c>
+      <c r="L79" s="17">
+        <v>3</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="N79" s="17">
+        <v>0</v>
+      </c>
+      <c r="O79" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H80" s="19">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
         <v>8</v>
       </c>
-      <c r="I80" s="19">
+      <c r="B80" s="17">
         <v>7</v>
       </c>
-      <c r="J80" s="20">
+      <c r="C80" s="18">
         <v>45716</v>
       </c>
-      <c r="K80" s="19">
-        <v>3</v>
-      </c>
-      <c r="L80" s="19" t="s">
+      <c r="D80" s="17">
+        <v>3</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="M80" s="19">
-        <v>0</v>
-      </c>
-      <c r="N80" s="19" t="s">
+      <c r="F80" s="17">
+        <v>0</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="I80" s="17">
+        <v>8</v>
+      </c>
+      <c r="J80" s="17">
+        <v>7</v>
+      </c>
+      <c r="K80" s="18">
+        <v>45716</v>
+      </c>
+      <c r="L80" s="17">
+        <v>3</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="N80" s="17">
+        <v>0</v>
+      </c>
+      <c r="O80" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H81" s="19">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>8</v>
+      </c>
+      <c r="B81" s="17">
+        <v>7</v>
+      </c>
+      <c r="C81" s="18">
+        <v>45716</v>
+      </c>
+      <c r="D81" s="17">
+        <v>3</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="I81" s="17">
         <v>9</v>
       </c>
-      <c r="I81" s="19">
+      <c r="J81" s="17">
         <v>10</v>
       </c>
-      <c r="J81" s="20">
+      <c r="K81" s="18">
         <v>45719</v>
       </c>
-      <c r="K81" s="19">
+      <c r="L81" s="17">
         <v>4</v>
       </c>
-      <c r="L81" s="19" t="s">
+      <c r="M81" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="M81" s="19">
-        <v>0</v>
-      </c>
-      <c r="N81" s="19" t="s">
+      <c r="N81" s="17">
+        <v>0</v>
+      </c>
+      <c r="O81" s="17" t="s">
         <v>270</v>
       </c>
     </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <v>9</v>
+      </c>
+      <c r="B82" s="17">
+        <v>10</v>
+      </c>
+      <c r="C82" s="18">
+        <v>45719</v>
+      </c>
+      <c r="D82" s="17">
+        <v>4</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82" s="17">
+        <v>0</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <v>9</v>
+      </c>
+      <c r="B83" s="17">
+        <v>10</v>
+      </c>
+      <c r="C83" s="18">
+        <v>45719</v>
+      </c>
+      <c r="D83" s="17">
+        <v>4</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="A13:M14"/>
+  <mergeCells count="17">
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="A13:N14"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="I62:K62"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
